--- a/Docs del proyecto/Planeaciones/Planeacion.xlsx
+++ b/Docs del proyecto/Planeaciones/Planeacion.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="72">
   <si>
     <t>Empresa</t>
   </si>
@@ -153,17 +153,93 @@
   </si>
   <si>
     <t>Realizar Modelo Entidad-Relación</t>
+  </si>
+  <si>
+    <t>Tercera Entrega</t>
+  </si>
+  <si>
+    <t>Actualizacion de planeaciones</t>
+  </si>
+  <si>
+    <t>Alex y Manuel</t>
+  </si>
+  <si>
+    <t>Verificacion de diagramas</t>
+  </si>
+  <si>
+    <t>Alex y Yunis</t>
+  </si>
+  <si>
+    <t>Implementacion de Consultar información del evento</t>
+  </si>
+  <si>
+    <t>Dante y Manuel</t>
+  </si>
+  <si>
+    <t>Investigación de hosting</t>
+  </si>
+  <si>
+    <t>Yunis</t>
+  </si>
+  <si>
+    <t>Elaboracion de pruebas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alex </t>
+  </si>
+  <si>
+    <t>Verificacion de Pruebas</t>
+  </si>
+  <si>
+    <t>Implementacion de Eliminar información del evento</t>
+  </si>
+  <si>
+    <t>Dante</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Implementacion de Modificar información del evento</t>
+  </si>
+  <si>
+    <t>Implementacion de Participar en evento</t>
+  </si>
+  <si>
+    <t>Implementacion de Iniciar Sesión</t>
+  </si>
+  <si>
+    <t>Implementacion de Cerrar sesión</t>
+  </si>
+  <si>
+    <t>Implementacion de Consultar página de Bienvenida</t>
+  </si>
+  <si>
+    <t>Implementacion de Consultar información de la empresa</t>
+  </si>
+  <si>
+    <t>Alex y Paulo</t>
+  </si>
+  <si>
+    <t>Implementacion de Contactar por teléfono a la empresa por medio de la plataforma</t>
+  </si>
+  <si>
+    <t>Implementacion de Acceso al foro del evento</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avance Implementacion de Full Calendar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="mm/dd"/>
+    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="12.0"/>
       <color rgb="FF000000"/>
@@ -232,6 +308,13 @@
       <u/>
       <sz val="20.0"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF7F6000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -333,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -402,6 +485,24 @@
     <xf borderId="11" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -467,11 +568,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="1974099065"/>
-        <c:axId val="344772410"/>
+        <c:axId val="1833933997"/>
+        <c:axId val="924908194"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1974099065"/>
+        <c:axId val="1833933997"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -486,10 +587,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344772410"/>
+        <c:crossAx val="924908194"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344772410"/>
+        <c:axId val="924908194"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -520,7 +621,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1974099065"/>
+        <c:crossAx val="1833933997"/>
         <c:crosses val="max"/>
       </c:valAx>
       <c:spPr>
@@ -1414,24 +1515,326 @@
       <c r="E48" s="17"/>
       <c r="F48" s="19"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="12"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="19"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="28">
+        <v>43178.0</v>
+      </c>
+      <c r="D51" s="29">
+        <v>43179.0</v>
+      </c>
+      <c r="E51" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="28">
+        <v>43178.0</v>
+      </c>
+      <c r="D52" s="29">
+        <v>43179.0</v>
+      </c>
+      <c r="E52" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="28">
+        <v>43178.0</v>
+      </c>
+      <c r="D53" s="29">
+        <v>43179.0</v>
+      </c>
+      <c r="E53" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="28">
+        <v>43178.0</v>
+      </c>
+      <c r="D54" s="29">
+        <v>43179.0</v>
+      </c>
+      <c r="E54" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" s="28">
+        <v>43178.0</v>
+      </c>
+      <c r="D55" s="29">
+        <v>43179.0</v>
+      </c>
+      <c r="E55" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="28">
+        <v>43178.0</v>
+      </c>
+      <c r="D56" s="29">
+        <v>43179.0</v>
+      </c>
+      <c r="E56" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="28">
+        <v>43177.0</v>
+      </c>
+      <c r="F57" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="28">
+        <v>43177.0</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="28">
+        <v>43177.0</v>
+      </c>
+      <c r="D59" s="29">
+        <v>43179.0</v>
+      </c>
+      <c r="E59" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="28">
+        <v>43175.0</v>
+      </c>
+      <c r="D60" s="29">
+        <v>43177.0</v>
+      </c>
+      <c r="E60" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="28">
+        <v>43175.0</v>
+      </c>
+      <c r="D61" s="29">
+        <v>43177.0</v>
+      </c>
+      <c r="E61" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="28">
+        <v>43173.0</v>
+      </c>
+      <c r="D62" s="29">
+        <v>43175.0</v>
+      </c>
+      <c r="E62" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="28">
+        <v>43173.0</v>
+      </c>
+      <c r="D63" s="29">
+        <v>43175.0</v>
+      </c>
+      <c r="E63" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="28">
+        <v>43173.0</v>
+      </c>
+      <c r="D64" s="29">
+        <v>43175.0</v>
+      </c>
+      <c r="E64" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="28">
+        <v>43177.0</v>
+      </c>
+      <c r="D65" s="29">
+        <v>43179.0</v>
+      </c>
+      <c r="E65" s="27">
+        <v>2.0</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C66" s="28">
+        <v>43177.0</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="67" ht="15.75" customHeight="1"/>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1"/>
